--- a/Khá 1 SS2.xlsx
+++ b/Khá 1 SS2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HI\Desktop\BTVN DA202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C0307B-F470-41CD-8682-F38449A8ED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD70B17-94CF-49A3-944A-CAA188B5DF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{360A39CC-E0BB-4E8B-96B4-26BC5FDA7D55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{360A39CC-E0BB-4E8B-96B4-26BC5FDA7D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Khá 1" sheetId="1" r:id="rId1"/>
     <sheet name="Khá 2" sheetId="2" r:id="rId2"/>
     <sheet name="Giỏi 3" sheetId="3" r:id="rId3"/>
     <sheet name="Giỏi 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Xuất sắc 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Xuất sắc 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="230">
   <si>
     <t>Nhiệm vụ 1: Phân loại lỗi</t>
   </si>
@@ -520,6 +521,562 @@
   </si>
   <si>
     <t>(2 × 65.000 của QB-240020) + (1 × 18.000 của QB-240080).</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ 1: Kiểm tra và liệt kê tất cả vấn đề</t>
+  </si>
+  <si>
+    <t>Loại vấn đề</t>
+  </si>
+  <si>
+    <t>Vị trí cụ thể (dòng/cột)</t>
+  </si>
+  <si>
+    <t>Mức độ</t>
+  </si>
+  <si>
+    <t>Dữ liệu thiếu (ô trống)</t>
+  </si>
+  <si>
+    <t>Cột Chi nhánh (QB-240004, 16, 52, 64, 88, 100); Cột Nhân viên (QB-240022, 70); Đơn giá (QB-240008, 34, 60, 92)</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Dữ liệu trùng lặp hoàn toàn</t>
+  </si>
+  <si>
+    <t>Mã QB-240020 (dòng trùng lặp nội dung hoàn toàn)</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Dữ liệu trùng lặp một phần</t>
+  </si>
+  <si>
+    <t>Mã QB-240080 (cùng mã nhưng ngày khác nhau); Mã QB-240050, 100 (bị lặp lại ở cuối danh sách)</t>
+  </si>
+  <si>
+    <t>Lỗi định dạng/Sai lệch</t>
+  </si>
+  <si>
+    <t>~10</t>
+  </si>
+  <si>
+    <t>Tên NV/Sản phẩm không đồng nhất (viết hoa/thường); Năm sai (2024, 2025, 2026, 2027); Đơn giá sai (QB-240044 ghi 4450)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiệm vụ 2: Lập kế hoạch xử lý </t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Vấn đề cần xử lý</t>
+  </si>
+  <si>
+    <t>Cách xử lý</t>
+  </si>
+  <si>
+    <t>Công cụ Excel</t>
+  </si>
+  <si>
+    <t>Chuẩn hóa định dạng</t>
+  </si>
+  <si>
+    <t>Đưa về cùng kiểu chữ (Proper), xử lý ngày tháng sai năm.</t>
+  </si>
+  <si>
+    <t>Xử lý dữ liệu thiếu</t>
+  </si>
+  <si>
+    <t>Xử lý trùng lặp</t>
+  </si>
+  <si>
+    <t>Loại bỏ các dòng trùng 100% và kiểm tra lại các mã bị trùng nhưng khác nội dung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiệm vụ 3: Thực hiện làm sạch và đánh giá kết quả </t>
+  </si>
+  <si>
+    <t>Chỉ số</t>
+  </si>
+  <si>
+    <t>Trước xử lý</t>
+  </si>
+  <si>
+    <t>Sau xử lý</t>
+  </si>
+  <si>
+    <t>Chênh lệch</t>
+  </si>
+  <si>
+    <t>Tổng số dòng dữ liệu</t>
+  </si>
+  <si>
+    <t>Số ô trống còn lại</t>
+  </si>
+  <si>
+    <t>Số dòng trùng lặp còn lại</t>
+  </si>
+  <si>
+    <t>Tỷ lệ dữ liệu sạch (%)</t>
+  </si>
+  <si>
+    <t>~85%</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ 4: Đề xuất phòng ngừa</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Quy tắc đề xuất</t>
+  </si>
+  <si>
+    <t>Lỗi nào sẽ được ngăn chặn?</t>
+  </si>
+  <si>
+    <t>Data Validation (List)</t>
+  </si>
+  <si>
+    <t>Ngăn chặn sai lỗi chính tả tên Nhân viên, Chi nhánh, Sản phẩm (người dùng chỉ được chọn từ danh sách).</t>
+  </si>
+  <si>
+    <t>VLOOKUP tự động điền đơn giá</t>
+  </si>
+  <si>
+    <t>Ngăn chặn việc nhập sai đơn giá hoặc để trống đơn giá khi đã có tên sản phẩm.</t>
+  </si>
+  <si>
+    <t>Cảnh báo trùng (Conditional Formatting)</t>
+  </si>
+  <si>
+    <t>Thông báo ngay lập tức nếu Mã đơn hàng bị nhập trùng (Duplicate values).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PROPER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TRIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Find &amp; Replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dùng hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VLOOKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> dựa trên bảng đơn giá chuẩn để điền đơn giá. Điền chi nhánh dựa trên nhân viên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VLOOKUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IFERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove Duplicates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhiệm vụ 1: Thiết kế Checklist kiểm tra dữ liệu</t>
+  </si>
+  <si>
+    <t>Hạng mục kiểm tra</t>
+  </si>
+  <si>
+    <t>Tiêu chí đạt</t>
+  </si>
+  <si>
+    <t>Công cụ Excel để kiểm tra</t>
+  </si>
+  <si>
+    <t>Cấu trúc Table</t>
+  </si>
+  <si>
+    <t>Dữ liệu được định dạng Table (Ctrl+T), có tên bảng rõ ràng, không có dòng/cột trống xen kẽ.</t>
+  </si>
+  <si>
+    <t>Format as Table</t>
+  </si>
+  <si>
+    <t>Cấu trúc Column</t>
+  </si>
+  <si>
+    <t>Mỗi cột chỉ chứa 1 loại thông tin; tiêu đề không dấu hoặc chuẩn hóa; không có cột ẩn.</t>
+  </si>
+  <si>
+    <t>Cấu trúc Row</t>
+  </si>
+  <si>
+    <t>Mỗi dòng là một đơn hàng duy nhất; không có dòng tổng cộng (Subtotal) ở giữa bảng.</t>
+  </si>
+  <si>
+    <t>Ctrl + Arrow keys</t>
+  </si>
+  <si>
+    <t>Dữ liệu thiếu</t>
+  </si>
+  <si>
+    <t>Không còn ô trống (Blanks) ở các cột bắt buộc: Mã đơn, Ngày, Doanh thu.</t>
+  </si>
+  <si>
+    <t>Dữ liệu trùng lặp</t>
+  </si>
+  <si>
+    <t>Không có mã đơn hàng (ID) nào bị lặp lại trong cùng một chi nhánh.</t>
+  </si>
+  <si>
+    <t>Conditional Formatting (Duplicate)</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ 2: Thiết kế quy trình làm sạch dữ liệu</t>
+  </si>
+  <si>
+    <t>Bước</t>
+  </si>
+  <si>
+    <t>Tên bước</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết</t>
+  </si>
+  <si>
+    <t>Công cụ sử dụng</t>
+  </si>
+  <si>
+    <t>Đầu ra</t>
+  </si>
+  <si>
+    <t>Sao lưu (Backup)</t>
+  </si>
+  <si>
+    <t>Tạo bản sao của dữ liệu gốc để đối chiếu nếu xảy ra sai sót khi xử lý.</t>
+  </si>
+  <si>
+    <t>Move or Copy Sheet</t>
+  </si>
+  <si>
+    <t>Bản sao dữ liệu gốc</t>
+  </si>
+  <si>
+    <t>Chỉnh font chữ, xóa khoảng trắng thừa, đưa ngày tháng về định dạng DD/MM/YYYY.</t>
+  </si>
+  <si>
+    <t>Dữ liệu nhất quán về trình bày</t>
+  </si>
+  <si>
+    <t>Xử lý giá trị trống</t>
+  </si>
+  <si>
+    <t>Điền giá trị mặc định (N/A) hoặc dùng hàm để truy xuất dữ liệu thiếu từ bảng danh mục.</t>
+  </si>
+  <si>
+    <t>Bảng dữ liệu đầy đủ ô trống</t>
+  </si>
+  <si>
+    <t>Loại bỏ trùng lặp</t>
+  </si>
+  <si>
+    <t>Quét toàn bộ bảng để xóa các dòng dữ liệu bị nhập lặp 2 lần.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates</t>
+  </si>
+  <si>
+    <t>Danh sách đơn hàng duy nhất</t>
+  </si>
+  <si>
+    <t>Kiểm tra logic</t>
+  </si>
+  <si>
+    <t>Kiểm tra các giá trị bất thường (Ví dụ: Đơn giá âm, ngày bán ở tương lai).</t>
+  </si>
+  <si>
+    <t>Dữ liệu sạch 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiệm vụ 3: Dự đoán hiệu quả </t>
+  </si>
+  <si>
+    <t>Tiêu chí</t>
+  </si>
+  <si>
+    <t>Hiện tại (không có quy trình)</t>
+  </si>
+  <si>
+    <t>Sau khi áp dụng (dự kiến)</t>
+  </si>
+  <si>
+    <t>Thời gian kiểm tra</t>
+  </si>
+  <si>
+    <t>Không cố định (tốn nhiều giờ)</t>
+  </si>
+  <si>
+    <t>Tỷ lệ lỗi phát hiện</t>
+  </si>
+  <si>
+    <t>Thấp (chỉ thấy khi phân tích)</t>
+  </si>
+  <si>
+    <t>Độ tin cậy báo cáo</t>
+  </si>
+  <si>
+    <t>Không đảm bảo</t>
+  </si>
+  <si>
+    <t>Thời gian làm lại</t>
+  </si>
+  <si>
+    <t>Nhiều (2-3 lần/tháng)</t>
+  </si>
+  <si>
+    <t>Gần như bằng 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Data Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TRIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PROPER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Text to Columns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IFERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VLOOKUP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF444746"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pivot Table</t>
+    </r>
+  </si>
+  <si>
+    <t>Giảm 70% (chỉ mất 15-20 phút/ngày)</t>
+  </si>
+  <si>
+    <t>&gt;98% lỗi được xử lý trước khi báo cáo</t>
+  </si>
+  <si>
+    <t>Tuyệt đối, số liệu khớp 3 chi nhánh</t>
   </si>
 </sst>
 </file>
@@ -588,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -603,7 +1160,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,6 +1171,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9457E194-DAD4-459F-8272-5681ECB71B08}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1390,7 +1959,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
@@ -1510,7 +2079,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
@@ -1761,12 +2330,634 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF93EC9-D551-466E-B883-51E8D7E6D826}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="7">
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>104</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20813E2-84F8-40B9-ABBC-3EDDDE23A92D}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>